--- a/experiments/Linear Regression/tyler.xlsx
+++ b/experiments/Linear Regression/tyler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\anna\experiments\Linear Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4E6E3D3-D7A4-403E-BFDA-2A09CD7AC76A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C9FFEB-E5C0-4EEF-B2A4-45044E339835}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22155" yWindow="2520" windowWidth="27660" windowHeight="18420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,12 +26,20 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Price</t>
   </si>
@@ -43,19 +51,108 @@
   <si>
     <t>Sales
 (1000s)</t>
+  </si>
+  <si>
+    <t>Guiyin800506</t>
+  </si>
+  <si>
+    <t>price * Advertising</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 99.0%</t>
+  </si>
+  <si>
+    <t>Upper 99.0%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -69,7 +166,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -77,11 +174,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -91,6 +208,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,20 +559,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:AS62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="AR61" sqref="AR61"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="2" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,277 +580,651 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="6">
         <v>50</v>
       </c>
       <c r="C2" s="3">
+        <f>A2*B2</f>
+        <v>100</v>
+      </c>
+      <c r="D2" s="3">
         <v>478</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2.5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="6">
         <v>50</v>
       </c>
       <c r="C3" s="3">
+        <f t="shared" ref="C3:C25" si="0">A3*B3</f>
+        <v>125</v>
+      </c>
+      <c r="D3" s="3">
         <v>373</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="6">
         <v>50</v>
       </c>
       <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="D4" s="3">
         <v>335</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="6">
         <v>50</v>
       </c>
       <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D5" s="3">
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2.5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="6">
         <v>50</v>
       </c>
       <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="D6" s="3">
         <v>358</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="6">
         <v>50</v>
       </c>
       <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="D7" s="3">
         <v>329</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="6">
         <v>50</v>
       </c>
       <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D8" s="3">
         <v>456</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2.5</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="6">
         <v>50</v>
       </c>
       <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="D9" s="3">
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>3</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="6">
         <v>50</v>
       </c>
       <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="D10" s="3">
         <v>322</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="6">
         <v>50</v>
       </c>
       <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D11" s="3">
         <v>437</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>2.5</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="6">
         <v>50</v>
       </c>
       <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="D12" s="3">
         <v>365</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>3</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="6">
         <v>50</v>
       </c>
       <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="D13" s="3">
         <v>342</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="6">
         <v>100</v>
       </c>
       <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="D14" s="3">
         <v>810</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2.5</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="6">
         <v>100</v>
       </c>
       <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="D15" s="3">
         <v>653</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>3</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="6">
         <v>100</v>
       </c>
       <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="D16" s="3">
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="6">
         <v>100</v>
       </c>
       <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="D17" s="3">
         <v>832</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2.5</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="6">
         <v>100</v>
       </c>
       <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="D18" s="3">
         <v>641</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="6">
         <v>100</v>
       </c>
       <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="D19" s="3">
         <v>372</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>2</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="6">
         <v>100</v>
       </c>
       <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="D20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>2.5</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="6">
         <v>100</v>
       </c>
       <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="D21" s="3">
         <v>620</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>3</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="6">
         <v>100</v>
       </c>
       <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="D22" s="3">
         <v>390</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="6">
         <v>100</v>
       </c>
       <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="D23" s="3">
         <v>790</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>2.5</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="6">
         <v>100</v>
       </c>
       <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="D24" s="3">
         <v>670</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="6">
         <v>100</v>
       </c>
       <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="D25" s="3">
         <v>393</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0.98899381483333582</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0.97810876577859451</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0.97482508064538376</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="7">
+        <v>28.173864957912098</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="7">
+        <v>3</v>
+      </c>
+      <c r="C40" s="7">
+        <v>709316</v>
+      </c>
+      <c r="D40" s="7">
+        <v>236438.66666666666</v>
+      </c>
+      <c r="E40" s="7">
+        <v>297.86923109226029</v>
+      </c>
+      <c r="F40" s="7">
+        <v>9.2588099325626664E-17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="7">
+        <v>20</v>
+      </c>
+      <c r="C41" s="7">
+        <v>15875.333333333345</v>
+      </c>
+      <c r="D41" s="7">
+        <v>793.76666666666722</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="8">
+        <v>23</v>
+      </c>
+      <c r="C42" s="8">
+        <v>725191.33333333337</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="7">
+        <v>-275.83333333333371</v>
+      </c>
+      <c r="C45" s="7">
+        <v>112.84210330270245</v>
+      </c>
+      <c r="D45" s="7">
+        <v>-2.444418574806269</v>
+      </c>
+      <c r="E45" s="7">
+        <v>2.3898350951459344E-2</v>
+      </c>
+      <c r="F45" s="7">
+        <v>-511.21783613536979</v>
+      </c>
+      <c r="G45" s="7">
+        <v>-40.448830531297659</v>
+      </c>
+      <c r="H45" s="7">
+        <v>-596.90745079629926</v>
+      </c>
+      <c r="I45" s="7">
+        <v>45.240784129631834</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="7">
+        <v>175.00000000000003</v>
+      </c>
+      <c r="C46" s="7">
+        <v>44.546791878503065</v>
+      </c>
+      <c r="D46" s="7">
+        <v>3.9284534894745078</v>
+      </c>
+      <c r="E46" s="7">
+        <v>8.3159990152089519E-4</v>
+      </c>
+      <c r="F46" s="7">
+        <v>82.077020448482742</v>
+      </c>
+      <c r="G46" s="7">
+        <v>267.9229795515173</v>
+      </c>
+      <c r="H46" s="7">
+        <v>48.249244124517915</v>
+      </c>
+      <c r="I46" s="7">
+        <v>301.75075587548213</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="7">
+        <v>19.68</v>
+      </c>
+      <c r="C47" s="7">
+        <v>1.4273522496021944</v>
+      </c>
+      <c r="D47" s="7">
+        <v>13.787766828745218</v>
+      </c>
+      <c r="E47" s="7">
+        <v>1.1262968573848539E-11</v>
+      </c>
+      <c r="F47" s="7">
+        <v>16.702595380957121</v>
+      </c>
+      <c r="G47" s="7">
+        <v>22.657404619042879</v>
+      </c>
+      <c r="H47" s="7">
+        <v>15.618697964354343</v>
+      </c>
+      <c r="I47" s="7">
+        <v>23.741302035645656</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="8">
+        <v>-6.0799999999999992</v>
+      </c>
+      <c r="C48" s="8">
+        <v>0.56347729915824185</v>
+      </c>
+      <c r="D48" s="8">
+        <v>-10.790141872765219</v>
+      </c>
+      <c r="E48" s="8">
+        <v>8.6772098069602771E-10</v>
+      </c>
+      <c r="F48" s="8">
+        <v>-7.255393049408184</v>
+      </c>
+      <c r="G48" s="8">
+        <v>-4.9046069505918144</v>
+      </c>
+      <c r="H48" s="8">
+        <v>-7.6832843348579711</v>
+      </c>
+      <c r="I48" s="8">
+        <v>-4.4767156651420272</v>
+      </c>
+    </row>
+    <row r="62" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS62" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
